--- a/SCRUM/SCRUM_TEAM_D.xlsx
+++ b/SCRUM/SCRUM_TEAM_D.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="37">
   <si>
     <t>PO - Backlog</t>
   </si>
@@ -110,16 +110,28 @@
     <t>Done</t>
   </si>
   <si>
-    <t>11.11. Open</t>
-  </si>
-  <si>
     <t>180min für 30%</t>
   </si>
   <si>
     <t>120min</t>
   </si>
   <si>
-    <t>Überplant 90min+90min</t>
+    <t>Closed (Won't Fix)</t>
+  </si>
+  <si>
+    <t>Spezifikation neues Spiel.</t>
+  </si>
+  <si>
+    <t>60min</t>
+  </si>
+  <si>
+    <t>Konzeption/Implementierung der Interfaces die nötig</t>
+  </si>
+  <si>
+    <t>Interfaces definieren.</t>
+  </si>
+  <si>
+    <t>Darstellung zum neuen Spiel anfangen</t>
   </si>
 </sst>
 </file>
@@ -617,7 +629,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="A5" sqref="A3:XFD5"/>
     </sheetView>
   </sheetViews>
@@ -982,10 +994,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -996,7 +1008,7 @@
     <col min="4" max="4" width="28.77734375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -1007,7 +1019,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1021,7 +1033,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -1038,7 +1050,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>1</v>
       </c>
@@ -1055,7 +1067,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>2</v>
       </c>
@@ -1072,7 +1084,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>2</v>
       </c>
@@ -1083,13 +1095,13 @@
         <v>24</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>2</v>
       </c>
@@ -1100,13 +1112,13 @@
         <v>23</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>2</v>
       </c>
@@ -1117,10 +1129,13 @@
         <v>25</v>
       </c>
       <c r="D8" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="15" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>2</v>
       </c>
@@ -1131,49 +1146,73 @@
         <v>15</v>
       </c>
       <c r="D9" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="F9" t="s">
+    </row>
+    <row r="10" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <v>2</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="13"/>
-    </row>
-    <row r="11" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="13"/>
-    </row>
-    <row r="12" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="13"/>
-    </row>
-    <row r="13" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <v>2</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
+        <v>2</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="13"/>
     </row>
-    <row r="14" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="13"/>
     </row>
-    <row r="15" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="13"/>
     </row>
-    <row r="16" spans="1:6" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
